--- a/dados/betacarss.xlsx
+++ b/dados/betacarss.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distancia Jfa K1200 Cores Variados</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>845.87</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1295215239#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3693927167-controle-longa-distancia-jfa-k1200-cores-variados-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200a Slim Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>422.93</v>
+        <v>775.38</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1295215239#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3481142199-fonte-automotiva-jfa-200a-slim-voltimetro-digital-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>493.42</v>
+        <v>890.39</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1295215239#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1295215239#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3201452522-controle-longa-distancia-jfa-k1200-acqua-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3201452522-controle-longa-distancia-jfa-k1200-acqua-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Cores Variados</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.98999999999999</v>
+        <v>525.75</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693927167-controle-longa-distancia-jfa-k1200-cores-variados-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1295215239#searchVariation=MLB22144397&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=fe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,20 +718,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Bob Storm Bivolt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>774.88</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,19 +741,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1295215239#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3427216532-fonte-carregador-jfa-200a-bob-storm-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>499.46</v>
+        <v>815.67</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -786,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1295215239#searchVariation=MLB22144397&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1295215239#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>523.63</v>
+        <v>564.49</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -831,19 +831,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3156589002-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3279271415-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,20 +853,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>408.73</v>
+        <v>754.4400000000001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -876,19 +876,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3313900249-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3313928031-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>716.71</v>
+        <v>519.39</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -921,19 +921,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3313928031-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1295215239#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,20 +943,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Bob Storm Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>624.33</v>
+        <v>445.19</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -971,14 +971,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3427216532-fonte-carregador-jfa-200a-bob-storm-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1295215239#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,20 +988,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>536.26</v>
+        <v>430.25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3279271415-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3313900249-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,20 +1033,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>634.4</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1295215239#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3156589002-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,20 +1078,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Voltímetro Digital Mono 220v</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>736.61</v>
+        <v>667.79</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3481142199-fonte-automotiva-jfa-200a-slim-voltimetro-digital-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5613cba5-a336-44d8-89d1-6eef12ffe955</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1295215239#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fe106e4b-d7f1-4cd1-8272-3b9e5a10eb2b</t>
         </is>
       </c>
     </row>
